--- a/Recursos/EsquemaCuna.xlsx
+++ b/Recursos/EsquemaCuna.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1P65F0WEnbkqGdLuZkYEkdNJt9YhTnbHX\AUTOMATIZACIÓN NORMAS\2_ON GOING\Recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESDPC\Desktop\App Seguridad\Recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94680E4E-B3AC-4585-953E-1DBC9A5FC3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8637876-F113-4CEF-90F4-7203199A8E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,9 +128,6 @@
     <t>Anx. II Sup</t>
   </si>
   <si>
-    <t>El establecimiento industrial cumple las características de un establecimiento TIPO C.</t>
-  </si>
-  <si>
     <t>“El establecimiento industrial ocupa totalmente un edificio, o varios, en su caso, que está a una distancia mayor de tres metros del edificio más próximo de otros establecimientos. Dicha distancia deberá estar libre de mercancías combustibles o elementos intermedios susceptibles de propagar el incendio”. {TokenAmarillo}</t>
   </si>
   <si>
@@ -2019,6 +2016,9 @@
   </si>
   <si>
     <t xml:space="preserve">ANEXO III – CÁLCULOS  HIDRÁULICOS </t>
+  </si>
+  <si>
+    <t>El establecimiento industrial cumple las características de un establecimiento TIPO {CONFIGURACION}</t>
   </si>
 </sst>
 </file>
@@ -2384,8 +2384,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:H998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="D647" sqref="D647"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2417,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>5</v>
@@ -2451,7 +2451,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -2509,7 +2509,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2523,7 +2523,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2537,7 +2537,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2551,7 +2551,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2565,7 +2565,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2579,7 +2579,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2593,7 +2593,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2646,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2660,7 +2660,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2674,7 +2674,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2688,7 +2688,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2702,7 +2702,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2748,7 +2748,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2762,7 +2762,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2790,7 +2790,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2804,7 +2804,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2818,7 +2818,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2832,7 +2832,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2846,7 +2846,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2860,7 +2860,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2874,7 +2874,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2888,7 +2888,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2902,7 +2902,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2916,7 +2916,7 @@
         <v>11</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2930,7 +2930,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2944,7 +2944,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2972,7 +2972,7 @@
         <v>11</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2986,7 +2986,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3000,7 +3000,7 @@
         <v>26</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3074,7 +3074,7 @@
         <v>26</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3088,7 +3088,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>31</v>
+        <v>591</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3102,7 +3102,7 @@
         <v>19</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3116,7 +3116,7 @@
         <v>19</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3130,7 +3130,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3144,7 +3144,7 @@
         <v>19</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3155,7 +3155,7 @@
         <v>15</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3169,7 +3169,7 @@
         <v>26</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -3183,7 +3183,7 @@
         <v>11</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3197,7 +3197,7 @@
         <v>11</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3211,7 +3211,7 @@
         <v>11</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3222,7 +3222,7 @@
         <v>15</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3236,7 +3236,7 @@
         <v>11</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3268,7 +3268,7 @@
         <v>11</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3282,7 +3282,7 @@
         <v>8</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -3296,7 +3296,7 @@
         <v>11</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3310,7 +3310,7 @@
         <v>26</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3321,10 +3321,10 @@
         <v>7</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3338,7 +3338,7 @@
         <v>11</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3352,7 +3352,7 @@
         <v>11</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3366,7 +3366,7 @@
         <v>11</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3377,7 +3377,7 @@
         <v>15</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3391,7 +3391,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3423,7 +3423,7 @@
         <v>11</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3437,7 +3437,7 @@
         <v>11</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3451,7 +3451,7 @@
         <v>11</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3462,10 +3462,10 @@
         <v>7</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3479,7 +3479,7 @@
         <v>11</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3490,7 +3490,7 @@
         <v>15</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3504,7 +3504,7 @@
         <v>11</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3515,7 +3515,7 @@
         <v>15</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3526,7 +3526,7 @@
         <v>15</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3540,7 +3540,7 @@
         <v>11</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3551,10 +3551,10 @@
         <v>20</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4" t="s">
@@ -3572,7 +3572,7 @@
         <v>19</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3586,7 +3586,7 @@
         <v>19</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3600,7 +3600,7 @@
         <v>19</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3614,7 +3614,7 @@
         <v>19</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3628,7 +3628,7 @@
         <v>11</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3642,7 +3642,7 @@
         <v>11</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3656,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3670,7 +3670,7 @@
         <v>11</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3684,7 +3684,7 @@
         <v>11</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3698,7 +3698,7 @@
         <v>11</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3712,7 +3712,7 @@
         <v>11</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3726,7 +3726,7 @@
         <v>11</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3740,7 +3740,7 @@
         <v>11</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3754,7 +3754,7 @@
         <v>11</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3768,7 +3768,7 @@
         <v>11</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3779,10 +3779,10 @@
         <v>7</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -3796,7 +3796,7 @@
         <v>11</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3810,7 +3810,7 @@
         <v>11</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3824,7 +3824,7 @@
         <v>11</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3838,7 +3838,7 @@
         <v>11</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3852,7 +3852,7 @@
         <v>11</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3863,10 +3863,10 @@
         <v>7</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3880,7 +3880,7 @@
         <v>11</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3891,7 +3891,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3905,7 +3905,7 @@
         <v>11</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3919,7 +3919,7 @@
         <v>11</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3933,7 +3933,7 @@
         <v>11</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -3947,7 +3947,7 @@
         <v>11</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3958,7 +3958,7 @@
         <v>15</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3972,7 +3972,7 @@
         <v>19</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3986,7 +3986,7 @@
         <v>11</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4000,7 +4000,7 @@
         <v>11</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4014,7 +4014,7 @@
         <v>11</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4028,7 +4028,7 @@
         <v>11</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4042,7 +4042,7 @@
         <v>11</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4056,7 +4056,7 @@
         <v>11</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4070,7 +4070,7 @@
         <v>11</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4084,7 +4084,7 @@
         <v>11</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4098,7 +4098,7 @@
         <v>11</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4112,7 +4112,7 @@
         <v>11</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4126,7 +4126,7 @@
         <v>11</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4140,7 +4140,7 @@
         <v>11</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4154,7 +4154,7 @@
         <v>11</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4168,7 +4168,7 @@
         <v>11</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4182,7 +4182,7 @@
         <v>11</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4196,7 +4196,7 @@
         <v>11</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="129" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4210,7 +4210,7 @@
         <v>11</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4224,7 +4224,7 @@
         <v>11</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="131" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4238,7 +4238,7 @@
         <v>11</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="132" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4252,7 +4252,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="133" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4266,7 +4266,7 @@
         <v>11</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="134" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4298,7 +4298,7 @@
         <v>26</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="136" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4309,10 +4309,10 @@
         <v>7</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="137" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4326,7 +4326,7 @@
         <v>11</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138" spans="1:7" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -4340,7 +4340,7 @@
         <v>11</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4354,7 +4354,7 @@
         <v>11</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="140" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4368,7 +4368,7 @@
         <v>11</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="141" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4379,7 +4379,7 @@
         <v>15</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4390,7 +4390,7 @@
         <v>15</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4401,7 +4401,7 @@
         <v>15</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="144" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4412,7 +4412,7 @@
         <v>15</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4426,7 +4426,7 @@
         <v>11</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4437,7 +4437,7 @@
         <v>15</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4451,7 +4451,7 @@
         <v>11</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="148" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4465,7 +4465,7 @@
         <v>11</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4476,7 +4476,7 @@
         <v>15</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="150" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4487,7 +4487,7 @@
         <v>15</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4501,7 +4501,7 @@
         <v>11</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4515,7 +4515,7 @@
         <v>19</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="153" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4529,7 +4529,7 @@
         <v>19</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4543,7 +4543,7 @@
         <v>19</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="155" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4557,7 +4557,7 @@
         <v>11</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4571,7 +4571,7 @@
         <v>11</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="157" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4582,10 +4582,10 @@
         <v>7</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4599,7 +4599,7 @@
         <v>11</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="159" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4610,7 +4610,7 @@
         <v>15</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -4624,7 +4624,7 @@
         <v>11</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="161" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4635,7 +4635,7 @@
         <v>15</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4649,7 +4649,7 @@
         <v>11</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4660,7 +4660,7 @@
         <v>15</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -4674,7 +4674,7 @@
         <v>11</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4688,7 +4688,7 @@
         <v>11</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="166" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4699,7 +4699,7 @@
         <v>15</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4713,7 +4713,7 @@
         <v>11</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4727,7 +4727,7 @@
         <v>11</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4741,7 +4741,7 @@
         <v>26</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4752,10 +4752,10 @@
         <v>7</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="171" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -4769,7 +4769,7 @@
         <v>11</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4783,7 +4783,7 @@
         <v>11</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4797,7 +4797,7 @@
         <v>11</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -4811,7 +4811,7 @@
         <v>11</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="175" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4825,7 +4825,7 @@
         <v>11</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="176" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4836,10 +4836,10 @@
         <v>7</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4853,7 +4853,7 @@
         <v>11</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4867,7 +4867,7 @@
         <v>11</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4881,7 +4881,7 @@
         <v>11</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="180" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4895,7 +4895,7 @@
         <v>11</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4909,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="182" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -4923,7 +4923,7 @@
         <v>11</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="183" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4937,7 +4937,7 @@
         <v>11</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4948,10 +4948,10 @@
         <v>20</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F184" s="4"/>
       <c r="G184" s="4" t="s">
@@ -4969,7 +4969,7 @@
         <v>11</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4983,7 +4983,7 @@
         <v>19</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4994,10 +4994,10 @@
         <v>7</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="188" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5011,7 +5011,7 @@
         <v>11</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5025,7 +5025,7 @@
         <v>11</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="190" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5039,7 +5039,7 @@
         <v>11</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="191" spans="1:7" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5053,7 +5053,7 @@
         <v>11</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="192" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5067,7 +5067,7 @@
         <v>11</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="193" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5078,7 +5078,7 @@
         <v>15</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="194" spans="1:7" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5092,7 +5092,7 @@
         <v>11</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5103,7 +5103,7 @@
         <v>15</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="196" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5117,7 +5117,7 @@
         <v>11</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="197" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5128,10 +5128,10 @@
         <v>20</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F197" s="4"/>
       <c r="G197" s="4" t="s">
@@ -5149,7 +5149,7 @@
         <v>11</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="199" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5163,7 +5163,7 @@
         <v>11</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="200" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5177,7 +5177,7 @@
         <v>11</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="201" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5191,7 +5191,7 @@
         <v>11</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="202" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5202,10 +5202,10 @@
         <v>10</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="203" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5219,7 +5219,7 @@
         <v>11</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="204" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5233,7 +5233,7 @@
         <v>11</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="205" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5247,7 +5247,7 @@
         <v>11</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="206" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5261,7 +5261,7 @@
         <v>11</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="207" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5275,7 +5275,7 @@
         <v>11</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="208" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5289,7 +5289,7 @@
         <v>11</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="209" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5303,7 +5303,7 @@
         <v>11</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="210" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5317,7 +5317,7 @@
         <v>11</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="211" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5331,7 +5331,7 @@
         <v>11</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="212" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5345,7 +5345,7 @@
         <v>19</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="213" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5359,7 +5359,7 @@
         <v>11</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="214" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5373,7 +5373,7 @@
         <v>11</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5387,7 +5387,7 @@
         <v>11</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="216" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5401,7 +5401,7 @@
         <v>11</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="217" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5415,7 +5415,7 @@
         <v>11</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="218" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5429,7 +5429,7 @@
         <v>11</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="219" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5443,7 +5443,7 @@
         <v>11</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="220" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5457,7 +5457,7 @@
         <v>11</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="221" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5471,7 +5471,7 @@
         <v>19</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="222" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5485,7 +5485,7 @@
         <v>11</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="223" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5499,7 +5499,7 @@
         <v>11</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="224" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5510,7 +5510,7 @@
         <v>15</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="225" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5524,7 +5524,7 @@
         <v>11</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="226" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5538,7 +5538,7 @@
         <v>11</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="227" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5552,7 +5552,7 @@
         <v>11</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="228" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5563,7 +5563,7 @@
         <v>15</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="229" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5577,7 +5577,7 @@
         <v>11</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="230" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5591,7 +5591,7 @@
         <v>11</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="231" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5605,7 +5605,7 @@
         <v>19</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="232" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5619,7 +5619,7 @@
         <v>11</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="233" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5633,7 +5633,7 @@
         <v>11</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="234" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5647,7 +5647,7 @@
         <v>11</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="235" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5661,7 +5661,7 @@
         <v>19</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="236" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5675,7 +5675,7 @@
         <v>19</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="237" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5689,7 +5689,7 @@
         <v>11</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="238" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5703,7 +5703,7 @@
         <v>11</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="239" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5717,7 +5717,7 @@
         <v>19</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="240" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5731,7 +5731,7 @@
         <v>11</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="241" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5745,7 +5745,7 @@
         <v>11</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="242" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5759,7 +5759,7 @@
         <v>11</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="243" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5773,7 +5773,7 @@
         <v>11</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="244" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5787,7 +5787,7 @@
         <v>11</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="245" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5801,7 +5801,7 @@
         <v>11</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="246" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5815,7 +5815,7 @@
         <v>11</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="247" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5829,7 +5829,7 @@
         <v>11</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="248" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5843,7 +5843,7 @@
         <v>11</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="249" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -5857,7 +5857,7 @@
         <v>11</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="250" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5871,7 +5871,7 @@
         <v>11</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="251" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5882,7 +5882,7 @@
         <v>15</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="252" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -5896,7 +5896,7 @@
         <v>11</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="253" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5910,7 +5910,7 @@
         <v>26</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="254" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5921,10 +5921,10 @@
         <v>7</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="255" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5938,7 +5938,7 @@
         <v>11</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="256" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5952,7 +5952,7 @@
         <v>11</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="257" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5966,7 +5966,7 @@
         <v>11</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="258" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5980,7 +5980,7 @@
         <v>11</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="259" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5994,7 +5994,7 @@
         <v>11</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="260" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6008,7 +6008,7 @@
         <v>11</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="261" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6022,7 +6022,7 @@
         <v>11</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="262" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6036,7 +6036,7 @@
         <v>11</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="263" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6050,7 +6050,7 @@
         <v>11</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="264" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6064,7 +6064,7 @@
         <v>11</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="265" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6078,7 +6078,7 @@
         <v>19</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="266" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6092,7 +6092,7 @@
         <v>11</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="267" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6106,7 +6106,7 @@
         <v>11</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="268" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6120,7 +6120,7 @@
         <v>11</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="269" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6134,7 +6134,7 @@
         <v>11</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="270" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6148,7 +6148,7 @@
         <v>11</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="271" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6162,7 +6162,7 @@
         <v>11</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="272" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6176,7 +6176,7 @@
         <v>11</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="273" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6190,7 +6190,7 @@
         <v>11</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="274" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6204,7 +6204,7 @@
         <v>11</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="275" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6218,7 +6218,7 @@
         <v>11</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="276" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6232,7 +6232,7 @@
         <v>11</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="277" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6243,7 +6243,7 @@
         <v>15</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="278" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6257,7 +6257,7 @@
         <v>19</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="279" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6268,7 +6268,7 @@
         <v>15</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="280" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6279,10 +6279,10 @@
         <v>7</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="281" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6296,7 +6296,7 @@
         <v>11</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="282" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6310,7 +6310,7 @@
         <v>11</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="283" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6324,7 +6324,7 @@
         <v>11</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="284" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6338,7 +6338,7 @@
         <v>11</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="285" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6352,7 +6352,7 @@
         <v>11</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="286" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6366,7 +6366,7 @@
         <v>11</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="287" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6380,7 +6380,7 @@
         <v>11</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="288" spans="1:4" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -6394,7 +6394,7 @@
         <v>11</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="289" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6405,7 +6405,7 @@
         <v>15</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="290" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6416,7 +6416,7 @@
         <v>15</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="291" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6430,7 +6430,7 @@
         <v>11</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="292" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6444,7 +6444,7 @@
         <v>11</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="293" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6458,7 +6458,7 @@
         <v>11</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="294" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6472,7 +6472,7 @@
         <v>11</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="295" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6486,7 +6486,7 @@
         <v>11</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="296" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6500,7 +6500,7 @@
         <v>19</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="297" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6514,7 +6514,7 @@
         <v>26</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="298" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6525,10 +6525,10 @@
         <v>7</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="299" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6542,7 +6542,7 @@
         <v>11</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="300" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6553,7 +6553,7 @@
         <v>15</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="301" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6567,7 +6567,7 @@
         <v>11</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="302" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6581,7 +6581,7 @@
         <v>11</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="303" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6595,7 +6595,7 @@
         <v>11</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="304" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6606,7 +6606,7 @@
         <v>15</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="305" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6620,7 +6620,7 @@
         <v>11</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="306" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6631,7 +6631,7 @@
         <v>15</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="307" spans="1:7" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -6645,7 +6645,7 @@
         <v>11</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="308" spans="1:7" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -6659,7 +6659,7 @@
         <v>11</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="309" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6673,7 +6673,7 @@
         <v>11</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="310" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6687,7 +6687,7 @@
         <v>11</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="311" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6701,7 +6701,7 @@
         <v>11</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="312" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6715,7 +6715,7 @@
         <v>19</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="313" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6729,7 +6729,7 @@
         <v>11</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="314" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6740,10 +6740,10 @@
         <v>20</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F314" s="4"/>
       <c r="G314" s="4" t="s">
@@ -6761,7 +6761,7 @@
         <v>11</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="316" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6775,7 +6775,7 @@
         <v>19</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="317" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6786,10 +6786,10 @@
         <v>20</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F317" s="4"/>
       <c r="G317" s="4" t="s">
@@ -6807,7 +6807,7 @@
         <v>19</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="319" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6821,7 +6821,7 @@
         <v>8</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="320" spans="1:7" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -6835,7 +6835,7 @@
         <v>11</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="321" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6849,7 +6849,7 @@
         <v>26</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="322" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6863,7 +6863,7 @@
         <v>11</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="323" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -6877,7 +6877,7 @@
         <v>11</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="324" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6891,7 +6891,7 @@
         <v>11</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="325" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6905,7 +6905,7 @@
         <v>19</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="326" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6919,7 +6919,7 @@
         <v>19</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="327" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6933,7 +6933,7 @@
         <v>19</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="328" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6947,7 +6947,7 @@
         <v>19</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="329" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6961,7 +6961,7 @@
         <v>19</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="330" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6975,7 +6975,7 @@
         <v>19</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="331" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -6989,7 +6989,7 @@
         <v>19</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="332" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7003,7 +7003,7 @@
         <v>19</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="333" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7017,7 +7017,7 @@
         <v>19</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="334" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7031,7 +7031,7 @@
         <v>11</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="335" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7045,7 +7045,7 @@
         <v>11</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="336" spans="1:4" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -7059,7 +7059,7 @@
         <v>11</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="337" spans="1:7" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7070,10 +7070,10 @@
         <v>20</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E337" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F337" s="4"/>
       <c r="G337" s="4" t="s">
@@ -7091,7 +7091,7 @@
         <v>19</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="339" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7105,7 +7105,7 @@
         <v>19</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="340" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7119,7 +7119,7 @@
         <v>26</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="341" spans="1:7" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7133,7 +7133,7 @@
         <v>11</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="342" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7147,7 +7147,7 @@
         <v>11</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="343" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7161,7 +7161,7 @@
         <v>11</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="344" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7175,7 +7175,7 @@
         <v>11</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="345" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7189,7 +7189,7 @@
         <v>11</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="346" spans="1:7" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -7203,7 +7203,7 @@
         <v>11</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="347" spans="1:7" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -7217,7 +7217,7 @@
         <v>11</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="348" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7231,7 +7231,7 @@
         <v>11</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="349" spans="1:7" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -7245,7 +7245,7 @@
         <v>11</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="350" spans="1:7" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -7259,7 +7259,7 @@
         <v>11</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="351" spans="1:7" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7273,7 +7273,7 @@
         <v>11</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="352" spans="1:7" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7287,7 +7287,7 @@
         <v>11</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="353" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7301,7 +7301,7 @@
         <v>11</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="354" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7315,7 +7315,7 @@
         <v>19</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="355" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7329,7 +7329,7 @@
         <v>19</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="356" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7343,7 +7343,7 @@
         <v>11</v>
       </c>
       <c r="D356" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="357" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7357,7 +7357,7 @@
         <v>19</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="358" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7371,7 +7371,7 @@
         <v>19</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="359" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7382,7 +7382,7 @@
         <v>15</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="360" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7396,7 +7396,7 @@
         <v>19</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="361" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7410,7 +7410,7 @@
         <v>19</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="362" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7424,7 +7424,7 @@
         <v>19</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="363" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7438,7 +7438,7 @@
         <v>19</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="364" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7452,7 +7452,7 @@
         <v>19</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="365" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7466,7 +7466,7 @@
         <v>19</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="366" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7480,7 +7480,7 @@
         <v>11</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="367" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7494,7 +7494,7 @@
         <v>19</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="368" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7508,7 +7508,7 @@
         <v>19</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="369" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7522,7 +7522,7 @@
         <v>19</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="370" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7536,7 +7536,7 @@
         <v>11</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="371" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7550,7 +7550,7 @@
         <v>11</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="372" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7564,7 +7564,7 @@
         <v>19</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="373" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7578,7 +7578,7 @@
         <v>19</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="374" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7592,7 +7592,7 @@
         <v>19</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="375" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7606,7 +7606,7 @@
         <v>19</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="376" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7620,7 +7620,7 @@
         <v>19</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="377" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7634,7 +7634,7 @@
         <v>19</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="378" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7648,7 +7648,7 @@
         <v>19</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="379" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7662,7 +7662,7 @@
         <v>19</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="380" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7676,7 +7676,7 @@
         <v>19</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="381" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7690,7 +7690,7 @@
         <v>19</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="382" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7704,7 +7704,7 @@
         <v>19</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="383" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7718,7 +7718,7 @@
         <v>19</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="384" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7732,7 +7732,7 @@
         <v>19</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="385" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7746,7 +7746,7 @@
         <v>19</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="386" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7760,7 +7760,7 @@
         <v>19</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="387" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7774,7 +7774,7 @@
         <v>19</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="388" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7788,7 +7788,7 @@
         <v>19</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="389" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7802,7 +7802,7 @@
         <v>19</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="390" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7816,7 +7816,7 @@
         <v>19</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="391" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7830,7 +7830,7 @@
         <v>19</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="392" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7844,7 +7844,7 @@
         <v>19</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="393" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7858,7 +7858,7 @@
         <v>19</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="394" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7872,7 +7872,7 @@
         <v>19</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="395" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -7886,7 +7886,7 @@
         <v>19</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="396" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7897,7 +7897,7 @@
         <v>15</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="397" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7911,7 +7911,7 @@
         <v>19</v>
       </c>
       <c r="D397" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="398" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7922,7 +7922,7 @@
         <v>15</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="399" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7936,7 +7936,7 @@
         <v>19</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="400" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7947,7 +7947,7 @@
         <v>15</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="401" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7961,7 +7961,7 @@
         <v>19</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="402" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -7975,7 +7975,7 @@
         <v>19</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="403" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -7989,7 +7989,7 @@
         <v>19</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="404" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8003,7 +8003,7 @@
         <v>19</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="405" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8017,7 +8017,7 @@
         <v>26</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="406" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8031,7 +8031,7 @@
         <v>11</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="407" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8045,7 +8045,7 @@
         <v>11</v>
       </c>
       <c r="D407" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="408" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8059,7 +8059,7 @@
         <v>11</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="409" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8070,7 +8070,7 @@
         <v>15</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="410" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8084,7 +8084,7 @@
         <v>11</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="411" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8098,7 +8098,7 @@
         <v>11</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="412" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8112,7 +8112,7 @@
         <v>11</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="413" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8126,7 +8126,7 @@
         <v>11</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="414" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8140,7 +8140,7 @@
         <v>11</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="415" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -8154,7 +8154,7 @@
         <v>11</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="416" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8168,7 +8168,7 @@
         <v>11</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="417" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8182,7 +8182,7 @@
         <v>11</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="418" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8196,7 +8196,7 @@
         <v>11</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="419" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8210,7 +8210,7 @@
         <v>11</v>
       </c>
       <c r="D419" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="420" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8224,7 +8224,7 @@
         <v>11</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="421" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8238,7 +8238,7 @@
         <v>11</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="422" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8249,7 +8249,7 @@
         <v>15</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="423" spans="1:4" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -8263,7 +8263,7 @@
         <v>11</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="424" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8277,7 +8277,7 @@
         <v>11</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="425" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8291,7 +8291,7 @@
         <v>11</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="426" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -8305,7 +8305,7 @@
         <v>11</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="427" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8319,7 +8319,7 @@
         <v>11</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="428" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8333,7 +8333,7 @@
         <v>11</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="429" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8347,7 +8347,7 @@
         <v>11</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="430" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8361,7 +8361,7 @@
         <v>11</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="431" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8375,7 +8375,7 @@
         <v>11</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="432" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8386,7 +8386,7 @@
         <v>15</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="433" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8400,7 +8400,7 @@
         <v>11</v>
       </c>
       <c r="D433" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="434" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8414,7 +8414,7 @@
         <v>11</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="435" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8428,7 +8428,7 @@
         <v>11</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="436" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8442,7 +8442,7 @@
         <v>11</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="437" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8456,7 +8456,7 @@
         <v>11</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="438" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8470,7 +8470,7 @@
         <v>19</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="439" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8484,7 +8484,7 @@
         <v>26</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="440" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8498,7 +8498,7 @@
         <v>11</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="441" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8512,7 +8512,7 @@
         <v>11</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="442" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8526,7 +8526,7 @@
         <v>11</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="443" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8540,7 +8540,7 @@
         <v>11</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="444" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8554,7 +8554,7 @@
         <v>11</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="445" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8568,7 +8568,7 @@
         <v>11</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="446" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8582,7 +8582,7 @@
         <v>11</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="447" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8593,7 +8593,7 @@
         <v>15</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="448" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8604,7 +8604,7 @@
         <v>15</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="449" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8618,7 +8618,7 @@
         <v>11</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="450" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8632,7 +8632,7 @@
         <v>11</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="451" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8646,7 +8646,7 @@
         <v>11</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="452" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8660,7 +8660,7 @@
         <v>11</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="453" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8671,7 +8671,7 @@
         <v>15</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="454" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8685,7 +8685,7 @@
         <v>11</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="455" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8696,10 +8696,10 @@
         <v>20</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E455" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F455" s="4"/>
       <c r="G455" s="4" t="s">
@@ -8717,7 +8717,7 @@
         <v>11</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="457" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8731,7 +8731,7 @@
         <v>11</v>
       </c>
       <c r="D457" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="458" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8742,7 +8742,7 @@
         <v>15</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="459" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8756,7 +8756,7 @@
         <v>19</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="460" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8770,7 +8770,7 @@
         <v>26</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="461" spans="1:7" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -8784,7 +8784,7 @@
         <v>11</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="462" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8798,7 +8798,7 @@
         <v>19</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="463" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8812,7 +8812,7 @@
         <v>19</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="464" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8826,7 +8826,7 @@
         <v>19</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="465" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -8840,7 +8840,7 @@
         <v>11</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="466" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8851,10 +8851,10 @@
         <v>20</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E466" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F466" s="4"/>
       <c r="G466" s="4" t="s">
@@ -8872,7 +8872,7 @@
         <v>19</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="468" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8886,7 +8886,7 @@
         <v>11</v>
       </c>
       <c r="D468" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="469" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8900,7 +8900,7 @@
         <v>11</v>
       </c>
       <c r="D469" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="470" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8914,7 +8914,7 @@
         <v>11</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="471" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8928,7 +8928,7 @@
         <v>11</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="472" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8939,7 +8939,7 @@
         <v>15</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="473" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8953,7 +8953,7 @@
         <v>11</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="474" spans="1:7" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -8967,7 +8967,7 @@
         <v>11</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="475" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8981,7 +8981,7 @@
         <v>11</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="476" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8995,7 +8995,7 @@
         <v>11</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="477" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9009,7 +9009,7 @@
         <v>11</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="478" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9020,7 +9020,7 @@
         <v>15</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="479" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9034,7 +9034,7 @@
         <v>11</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="480" spans="1:7" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -9048,7 +9048,7 @@
         <v>11</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="481" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -9062,7 +9062,7 @@
         <v>11</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="482" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9076,7 +9076,7 @@
         <v>11</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="483" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9090,7 +9090,7 @@
         <v>11</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="484" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9104,7 +9104,7 @@
         <v>11</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="485" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9118,7 +9118,7 @@
         <v>11</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="486" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9132,7 +9132,7 @@
         <v>11</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="487" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9146,7 +9146,7 @@
         <v>11</v>
       </c>
       <c r="D487" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="488" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9160,7 +9160,7 @@
         <v>19</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="489" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9174,7 +9174,7 @@
         <v>19</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="490" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9188,7 +9188,7 @@
         <v>19</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="491" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9202,7 +9202,7 @@
         <v>19</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="492" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9216,7 +9216,7 @@
         <v>19</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="493" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9230,7 +9230,7 @@
         <v>19</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="494" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9244,7 +9244,7 @@
         <v>19</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="495" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9258,7 +9258,7 @@
         <v>26</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="496" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9272,7 +9272,7 @@
         <v>11</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="497" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9286,7 +9286,7 @@
         <v>11</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="498" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9300,7 +9300,7 @@
         <v>11</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="499" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9314,7 +9314,7 @@
         <v>11</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="500" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9325,10 +9325,10 @@
         <v>20</v>
       </c>
       <c r="D500" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E500" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F500" s="4"/>
       <c r="G500" s="4" t="s">
@@ -9346,7 +9346,7 @@
         <v>26</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="502" spans="1:7" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9360,7 +9360,7 @@
         <v>11</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="503" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9371,10 +9371,10 @@
         <v>7</v>
       </c>
       <c r="C503" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="504" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9388,7 +9388,7 @@
         <v>11</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="505" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9402,7 +9402,7 @@
         <v>11</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="506" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9416,7 +9416,7 @@
         <v>11</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="507" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9430,7 +9430,7 @@
         <v>11</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="508" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9444,7 +9444,7 @@
         <v>11</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="509" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9458,7 +9458,7 @@
         <v>11</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="510" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9472,7 +9472,7 @@
         <v>11</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="511" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9486,7 +9486,7 @@
         <v>11</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="512" spans="1:7" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9500,7 +9500,7 @@
         <v>11</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="513" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9514,7 +9514,7 @@
         <v>11</v>
       </c>
       <c r="D513" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="514" spans="1:7" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -9528,7 +9528,7 @@
         <v>11</v>
       </c>
       <c r="D514" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="515" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9542,7 +9542,7 @@
         <v>11</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="516" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9553,10 +9553,10 @@
         <v>20</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E516" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F516" s="4"/>
       <c r="G516" s="4" t="s">
@@ -9574,7 +9574,7 @@
         <v>11</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="518" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9588,7 +9588,7 @@
         <v>11</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="519" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9602,7 +9602,7 @@
         <v>11</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="520" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9613,10 +9613,10 @@
         <v>7</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="521" spans="1:7" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -9630,7 +9630,7 @@
         <v>11</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="522" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9644,7 +9644,7 @@
         <v>11</v>
       </c>
       <c r="D522" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="523" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9655,10 +9655,10 @@
         <v>7</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="524" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9672,7 +9672,7 @@
         <v>11</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="525" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9686,7 +9686,7 @@
         <v>11</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="526" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9700,7 +9700,7 @@
         <v>11</v>
       </c>
       <c r="D526" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="527" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9711,10 +9711,10 @@
         <v>7</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="528" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9728,7 +9728,7 @@
         <v>11</v>
       </c>
       <c r="D528" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="529" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9742,7 +9742,7 @@
         <v>11</v>
       </c>
       <c r="D529" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="530" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9753,10 +9753,10 @@
         <v>7</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="531" spans="1:4" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -9770,7 +9770,7 @@
         <v>11</v>
       </c>
       <c r="D531" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="532" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9784,7 +9784,7 @@
         <v>11</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="533" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9798,7 +9798,7 @@
         <v>11</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="534" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9812,7 +9812,7 @@
         <v>26</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="535" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9826,7 +9826,7 @@
         <v>11</v>
       </c>
       <c r="D535" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="536" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9840,7 +9840,7 @@
         <v>11</v>
       </c>
       <c r="D536" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="537" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9854,7 +9854,7 @@
         <v>11</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="538" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9868,7 +9868,7 @@
         <v>11</v>
       </c>
       <c r="D538" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="539" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9882,7 +9882,7 @@
         <v>11</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="540" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9896,7 +9896,7 @@
         <v>11</v>
       </c>
       <c r="D540" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="541" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9910,7 +9910,7 @@
         <v>11</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="542" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -9924,7 +9924,7 @@
         <v>11</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="543" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9938,7 +9938,7 @@
         <v>11</v>
       </c>
       <c r="D543" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="544" spans="1:4" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -9952,7 +9952,7 @@
         <v>11</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="545" spans="1:7" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -9966,7 +9966,7 @@
         <v>11</v>
       </c>
       <c r="D545" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="546" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9980,7 +9980,7 @@
         <v>11</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="547" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9994,7 +9994,7 @@
         <v>11</v>
       </c>
       <c r="D547" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="548" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10008,7 +10008,7 @@
         <v>11</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="549" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10022,7 +10022,7 @@
         <v>11</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="550" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10036,7 +10036,7 @@
         <v>11</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="551" spans="1:7" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -10050,7 +10050,7 @@
         <v>11</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="552" spans="1:7" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10064,7 +10064,7 @@
         <v>11</v>
       </c>
       <c r="D552" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="553" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10078,7 +10078,7 @@
         <v>11</v>
       </c>
       <c r="D553" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="554" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10092,7 +10092,7 @@
         <v>11</v>
       </c>
       <c r="D554" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="555" spans="1:7" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10106,7 +10106,7 @@
         <v>11</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="556" spans="1:7" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10120,7 +10120,7 @@
         <v>11</v>
       </c>
       <c r="D556" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="557" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10131,10 +10131,10 @@
         <v>20</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E557" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F557" s="4"/>
       <c r="G557" s="4" t="s">
@@ -10152,7 +10152,7 @@
         <v>11</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="559" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10166,7 +10166,7 @@
         <v>26</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="560" spans="1:7" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -10180,7 +10180,7 @@
         <v>11</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="561" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10194,7 +10194,7 @@
         <v>11</v>
       </c>
       <c r="D561" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="562" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10208,7 +10208,7 @@
         <v>11</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="563" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10222,7 +10222,7 @@
         <v>11</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="564" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10236,7 +10236,7 @@
         <v>11</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="565" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10250,7 +10250,7 @@
         <v>11</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="566" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10264,7 +10264,7 @@
         <v>11</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="567" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10278,7 +10278,7 @@
         <v>11</v>
       </c>
       <c r="D567" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="568" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10292,7 +10292,7 @@
         <v>11</v>
       </c>
       <c r="D568" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="569" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10306,7 +10306,7 @@
         <v>11</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="570" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10320,7 +10320,7 @@
         <v>11</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="571" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10334,7 +10334,7 @@
         <v>11</v>
       </c>
       <c r="D571" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="572" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10348,7 +10348,7 @@
         <v>11</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="573" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10362,7 +10362,7 @@
         <v>11</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="574" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10376,7 +10376,7 @@
         <v>11</v>
       </c>
       <c r="D574" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="575" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10390,7 +10390,7 @@
         <v>11</v>
       </c>
       <c r="D575" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="576" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10404,7 +10404,7 @@
         <v>11</v>
       </c>
       <c r="D576" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="577" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10418,7 +10418,7 @@
         <v>11</v>
       </c>
       <c r="D577" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="578" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10432,7 +10432,7 @@
         <v>11</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="579" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10446,7 +10446,7 @@
         <v>11</v>
       </c>
       <c r="D579" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="580" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10460,7 +10460,7 @@
         <v>11</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="581" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10474,7 +10474,7 @@
         <v>11</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="582" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10488,7 +10488,7 @@
         <v>11</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="583" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10502,7 +10502,7 @@
         <v>11</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="584" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10516,7 +10516,7 @@
         <v>11</v>
       </c>
       <c r="D584" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="585" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10530,7 +10530,7 @@
         <v>11</v>
       </c>
       <c r="D585" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="586" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10544,7 +10544,7 @@
         <v>11</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="587" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10558,7 +10558,7 @@
         <v>11</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="588" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10572,7 +10572,7 @@
         <v>11</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="589" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10586,7 +10586,7 @@
         <v>11</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="590" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10600,7 +10600,7 @@
         <v>11</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="591" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10614,7 +10614,7 @@
         <v>11</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="592" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10628,7 +10628,7 @@
         <v>11</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="593" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10642,7 +10642,7 @@
         <v>11</v>
       </c>
       <c r="D593" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="594" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10656,7 +10656,7 @@
         <v>11</v>
       </c>
       <c r="D594" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="595" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10670,7 +10670,7 @@
         <v>11</v>
       </c>
       <c r="D595" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="596" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10684,7 +10684,7 @@
         <v>11</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="597" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10698,7 +10698,7 @@
         <v>11</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="598" spans="1:4" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -10712,7 +10712,7 @@
         <v>11</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="599" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10726,7 +10726,7 @@
         <v>11</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="600" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10740,7 +10740,7 @@
         <v>11</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="601" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10754,7 +10754,7 @@
         <v>11</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="602" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10768,7 +10768,7 @@
         <v>11</v>
       </c>
       <c r="D602" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="603" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10782,7 +10782,7 @@
         <v>11</v>
       </c>
       <c r="D603" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="604" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -10796,7 +10796,7 @@
         <v>11</v>
       </c>
       <c r="D604" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="605" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10810,7 +10810,7 @@
         <v>11</v>
       </c>
       <c r="D605" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="606" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10824,7 +10824,7 @@
         <v>11</v>
       </c>
       <c r="D606" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="607" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10838,7 +10838,7 @@
         <v>11</v>
       </c>
       <c r="D607" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="608" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10852,7 +10852,7 @@
         <v>11</v>
       </c>
       <c r="D608" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="609" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10866,7 +10866,7 @@
         <v>11</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="610" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -10880,7 +10880,7 @@
         <v>11</v>
       </c>
       <c r="D610" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="611" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10894,7 +10894,7 @@
         <v>11</v>
       </c>
       <c r="D611" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="612" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10908,7 +10908,7 @@
         <v>11</v>
       </c>
       <c r="D612" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="613" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -10922,7 +10922,7 @@
         <v>11</v>
       </c>
       <c r="D613" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="614" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10936,7 +10936,7 @@
         <v>11</v>
       </c>
       <c r="D614" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="615" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -10950,7 +10950,7 @@
         <v>11</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="616" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10964,7 +10964,7 @@
         <v>11</v>
       </c>
       <c r="D616" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="617" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -10978,7 +10978,7 @@
         <v>11</v>
       </c>
       <c r="D617" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="618" spans="1:4" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -10992,7 +10992,7 @@
         <v>11</v>
       </c>
       <c r="D618" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="619" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11006,7 +11006,7 @@
         <v>11</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="620" spans="1:4" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -11020,7 +11020,7 @@
         <v>11</v>
       </c>
       <c r="D620" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="621" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -11034,7 +11034,7 @@
         <v>11</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="622" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11048,7 +11048,7 @@
         <v>11</v>
       </c>
       <c r="D622" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="623" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11062,7 +11062,7 @@
         <v>11</v>
       </c>
       <c r="D623" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="624" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -11076,7 +11076,7 @@
         <v>11</v>
       </c>
       <c r="D624" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="625" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11090,7 +11090,7 @@
         <v>11</v>
       </c>
       <c r="D625" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="626" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11104,7 +11104,7 @@
         <v>11</v>
       </c>
       <c r="D626" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="627" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -11118,7 +11118,7 @@
         <v>11</v>
       </c>
       <c r="D627" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="628" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -11132,7 +11132,7 @@
         <v>11</v>
       </c>
       <c r="D628" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="629" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11146,7 +11146,7 @@
         <v>11</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="630" spans="1:4" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -11160,7 +11160,7 @@
         <v>11</v>
       </c>
       <c r="D630" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="631" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11174,7 +11174,7 @@
         <v>11</v>
       </c>
       <c r="D631" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="632" spans="1:4" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -11188,7 +11188,7 @@
         <v>11</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="633" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -11202,7 +11202,7 @@
         <v>11</v>
       </c>
       <c r="D633" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="634" spans="1:4" s="5" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -11216,7 +11216,7 @@
         <v>11</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="635" spans="1:4" s="5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -11230,7 +11230,7 @@
         <v>11</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="636" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -11244,7 +11244,7 @@
         <v>11</v>
       </c>
       <c r="D636" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="637" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11258,7 +11258,7 @@
         <v>11</v>
       </c>
       <c r="D637" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="638" spans="1:4" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -11272,7 +11272,7 @@
         <v>11</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="639" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11286,7 +11286,7 @@
         <v>11</v>
       </c>
       <c r="D639" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="640" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11300,7 +11300,7 @@
         <v>11</v>
       </c>
       <c r="D640" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="641" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11314,7 +11314,7 @@
         <v>11</v>
       </c>
       <c r="D641" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="642" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11325,7 +11325,7 @@
         <v>15</v>
       </c>
       <c r="D642" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="643" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11339,7 +11339,7 @@
         <v>11</v>
       </c>
       <c r="D643" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="644" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11353,7 +11353,7 @@
         <v>19</v>
       </c>
       <c r="D644" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="645" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11367,7 +11367,7 @@
         <v>19</v>
       </c>
       <c r="D645" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="646" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11381,7 +11381,7 @@
         <v>19</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="647" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11395,7 +11395,7 @@
         <v>19</v>
       </c>
       <c r="D647" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="648" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11409,7 +11409,7 @@
         <v>19</v>
       </c>
       <c r="D648" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="649" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
